--- a/reports/df_result_ratios_by_range_and_size_pesh.xlsx
+++ b/reports/df_result_ratios_by_range_and_size_pesh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disk_D\own\Python\ege\olimps\dano\project_part\DANO-HDE-X5-GROUP-ANALYSIS\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078D6E01-8592-4B7E-8795-6055305254D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3B852F-6C7C-4942-A4AE-B149C2AD8E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,28 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>small_traffic_ratio</t>
-  </si>
-  <si>
-    <t>medium_traffic_ratio</t>
-  </si>
-  <si>
-    <t>large_plus_traffic_ratio</t>
-  </si>
-  <si>
-    <t>small_check_ratio</t>
-  </si>
-  <si>
-    <t>medium_check_ratio</t>
-  </si>
-  <si>
-    <t>large_plus_check_ratio</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>40&lt;x&lt;70</t>
   </si>
@@ -62,34 +41,10 @@
     <t>ria_group</t>
   </si>
   <si>
-    <t>mean_diff_traf_large_plus</t>
-  </si>
-  <si>
-    <t>mean_diff_traf_medium</t>
-  </si>
-  <si>
-    <t>mean_diff_traf_small</t>
-  </si>
-  <si>
-    <t>p_traf_large_plus</t>
-  </si>
-  <si>
     <t>p_traf_medium</t>
   </si>
   <si>
     <t>p_traf_small</t>
-  </si>
-  <si>
-    <t>mean_diff_check_large_plus</t>
-  </si>
-  <si>
-    <t>mean_diff_check_medium</t>
-  </si>
-  <si>
-    <t>mean_diff_check_small</t>
-  </si>
-  <si>
-    <t>p_check_large_plus</t>
   </si>
   <si>
     <t>p_check_medium</t>
@@ -97,15 +52,60 @@
   <si>
     <t>p_check_small</t>
   </si>
+  <si>
+    <t>diff_traffic_small</t>
+  </si>
+  <si>
+    <t>p_traf_large</t>
+  </si>
+  <si>
+    <t>diff_check_large</t>
+  </si>
+  <si>
+    <t>diff_check_medium</t>
+  </si>
+  <si>
+    <t>diff_check_small</t>
+  </si>
+  <si>
+    <t>p_check_large</t>
+  </si>
+  <si>
+    <t>группа</t>
+  </si>
+  <si>
+    <t>большие, трафик</t>
+  </si>
+  <si>
+    <t>средние, трафик</t>
+  </si>
+  <si>
+    <t>большие</t>
+  </si>
+  <si>
+    <t>средние</t>
+  </si>
+  <si>
+    <t>маленькие</t>
+  </si>
+  <si>
+    <t>, трафик</t>
+  </si>
+  <si>
+    <t>p_small</t>
+  </si>
+  <si>
+    <t>p_medium</t>
+  </si>
+  <si>
+    <t>p_large</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,17 +114,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -151,21 +165,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="60% — акцент5" xfId="1" builtinId="48"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -294,14 +363,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>small_traffic_ratio</c:v>
+                  <c:v>маленькие</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -309,16 +378,74 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>x&lt;40</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>40&lt;x&lt;70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>x&lt;40</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>x&gt;70</c:v>
@@ -330,16 +457,16 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.197857451113262</c:v>
+                  <c:v>1.0813526272465961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.082084171915185</c:v>
+                  <c:v>1.1992193931029851</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.43848447356493</c:v>
+                  <c:v>1.4357713473342191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,14 +486,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>medium_traffic_ratio</c:v>
+                  <c:v>средние</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -374,16 +501,74 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>x&lt;40</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>40&lt;x&lt;70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>x&lt;40</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>x&gt;70</c:v>
@@ -395,16 +580,16 @@
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.256883224179542</c:v>
+                  <c:v>1.1508620499675959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1608009637383381</c:v>
+                  <c:v>1.2556129712503381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4035915031988691</c:v>
+                  <c:v>1.396323543808242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,14 +609,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>large_plus_traffic_ratio</c:v>
+                  <c:v>большие</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -439,16 +624,74 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>x&lt;40</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>40&lt;x&lt;70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>x&lt;40</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>x&gt;70</c:v>
@@ -460,16 +703,16 @@
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0898156601241049</c:v>
+                  <c:v>1.0469023978982821</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.049043624578514</c:v>
+                  <c:v>1.0950344216963761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0591947984359831</c:v>
+                  <c:v>1.056840167376536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -481,8 +724,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -565,7 +809,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -774,18 +1018,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>small_check_ratio</c:v>
+                  <c:v>маленькие</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -793,16 +1037,74 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$Q$2:$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>x&lt;40</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>40&lt;x&lt;70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>x&lt;40</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>x&gt;70</c:v>
@@ -812,18 +1114,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$4</c:f>
+              <c:f>Sheet1!$R$2:$R$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.95808990228044488</c:v>
+                  <c:v>0.98747659801743415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9987640640635137</c:v>
+                  <c:v>0.96709289590307945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95566140886178008</c:v>
+                  <c:v>0.98923533241378192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,18 +1141,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>medium_check_ratio</c:v>
+                  <c:v>средние</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -858,16 +1160,74 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$Q$2:$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>x&lt;40</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>40&lt;x&lt;70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>x&lt;40</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>x&gt;70</c:v>
@@ -877,18 +1237,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$4</c:f>
+              <c:f>Sheet1!$S$2:$S$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.98819113655104562</c:v>
+                  <c:v>0.97105317961926629</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96738846947510004</c:v>
+                  <c:v>0.98904847692940456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98487652290930205</c:v>
+                  <c:v>0.98430820023977539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -904,18 +1264,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>large_plus_check_ratio</c:v>
+                  <c:v>большие</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -923,16 +1283,74 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$Q$2:$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>x&lt;40</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>40&lt;x&lt;70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>x&lt;40</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>x&gt;70</c:v>
@@ -942,18 +1360,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$4</c:f>
+              <c:f>Sheet1!$T$2:$T$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0062166249238449</c:v>
+                  <c:v>0.92162863446349685</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90984752481681797</c:v>
+                  <c:v>1.011099251734662</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94744252830896414</c:v>
+                  <c:v>0.96049110858123121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,8 +1383,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1050,7 +1469,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1250,18 +1669,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$1</c:f>
+              <c:f>Лист1!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mean_diff_traf_large_plus</c:v>
+                  <c:v>большие</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1329,14 +1748,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Лист1!$A$11:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>x&lt;40</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>40&lt;x&lt;70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>x&lt;40</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>x&gt;70</c:v>
@@ -1346,15 +1765,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$4</c:f>
+              <c:f>Лист1!$B$11:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>-3.2315559619999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-1.6492657100000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.2315559619999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.8821196869999999</c:v>
@@ -1373,18 +1792,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$1</c:f>
+              <c:f>Лист1!$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mean_diff_traf_medium</c:v>
+                  <c:v>средние</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1452,14 +1871,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Лист1!$A$11:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>x&lt;40</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>40&lt;x&lt;70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>x&lt;40</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>x&gt;70</c:v>
@@ -1469,15 +1888,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$4</c:f>
+              <c:f>Лист1!$C$11:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>17.17005417</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.024786349999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.17005417</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.60149756</c:v>
@@ -1496,18 +1915,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$D$1</c:f>
+              <c:f>Лист1!$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mean_diff_traf_small</c:v>
+                  <c:v>маленькие</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1575,14 +1994,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Лист1!$A$11:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>x&lt;40</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>40&lt;x&lt;70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>x&lt;40</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>x&gt;70</c:v>
@@ -1592,15 +2011,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$4</c:f>
+              <c:f>Лист1!$D$11:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>2.3197406049999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>14.73375244</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3197406049999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.7467233750000002</c:v>
@@ -1890,7 +2309,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13332526824631735"/>
+          <c:y val="0.11330913834197746"/>
+          <c:w val="0.83613001850239987"/>
+          <c:h val="0.76412448268091737"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1900,18 +2329,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$H$1</c:f>
+              <c:f>Лист1!$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mean_diff_check_large_plus</c:v>
+                  <c:v>большие</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1979,14 +2408,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Лист1!$F$11:$F$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>x&lt;40</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>40&lt;x&lt;70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>x&lt;40</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>x&gt;70</c:v>
@@ -1996,15 +2425,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$H$2:$H$4</c:f>
+              <c:f>Лист1!$G$11:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>-114.3674429</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-7.5782648950000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-114.3674429</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-96.866039049999998</c:v>
@@ -2023,18 +2452,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$I$1</c:f>
+              <c:f>Лист1!$H$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mean_diff_check_medium</c:v>
+                  <c:v>средние</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2102,14 +2531,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Лист1!$F$11:$F$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>x&lt;40</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>40&lt;x&lt;70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>x&lt;40</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>x&gt;70</c:v>
@@ -2119,15 +2548,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$I$2:$I$4</c:f>
+              <c:f>Лист1!$H$11:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>-48.581196499999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-33.624382660000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-48.581196499999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-26.41078061</c:v>
@@ -2146,18 +2575,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$J$1</c:f>
+              <c:f>Лист1!$I$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mean_diff_check_small</c:v>
+                  <c:v>маленькие</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2225,14 +2654,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Лист1!$F$11:$F$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>x&lt;40</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>40&lt;x&lt;70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>x&lt;40</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>x&gt;70</c:v>
@@ -2242,15 +2671,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$J$2:$J$4</c:f>
+              <c:f>Лист1!$I$11:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>-21.088183900000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-40.523752299999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-21.088183900000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-58.282156190000002</c:v>
@@ -2290,7 +2719,9 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -2469,10 +2900,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2506,10 +2937,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2543,10 +2974,10 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2580,10 +3011,10 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -4633,15 +5064,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71717</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4668,16 +5099,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>306594</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>480508</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>34064</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4710,15 +5141,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>174307</xdr:rowOff>
+      <xdr:colOff>248323</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>958215</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>589218</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>45579</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4745,16 +5176,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1283017</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>140016</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>922243</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1504950</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>108584</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590632</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>128605</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4785,7 +5216,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="X5">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4799,22 +5230,22 @@
         <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="006D2C"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="D40404"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="004A1E"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="00923A"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="E03E1A"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="678E79"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -5067,118 +5498,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1.0813526272465961</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.1508620499675959</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.0469023978982821</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.98747659801743415</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.97105317961926629</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0.92162863446349685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="5">
+        <v>1.1992193931029851</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.2556129712503381</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.0950344216963761</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.96709289590307945</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.98904847692940456</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1.011099251734662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1.197857451113262</v>
-      </c>
-      <c r="C2">
-        <v>1.256883224179542</v>
-      </c>
-      <c r="D2">
-        <v>1.0898156601241049</v>
-      </c>
-      <c r="E2">
-        <v>0.95808990228044488</v>
-      </c>
-      <c r="F2">
-        <v>0.98819113655104562</v>
-      </c>
-      <c r="G2">
-        <v>1.0062166249238449</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>1.082084171915185</v>
-      </c>
-      <c r="C3">
-        <v>1.1608009637383381</v>
-      </c>
-      <c r="D3">
-        <v>1.049043624578514</v>
-      </c>
-      <c r="E3">
-        <v>0.9987640640635137</v>
-      </c>
-      <c r="F3">
-        <v>0.96738846947510004</v>
-      </c>
-      <c r="G3">
-        <v>0.90984752481681797</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1.43848447356493</v>
-      </c>
-      <c r="C4">
-        <v>1.4035915031988691</v>
-      </c>
-      <c r="D4">
-        <v>1.0591947984359831</v>
-      </c>
-      <c r="E4">
-        <v>0.95566140886178008</v>
-      </c>
-      <c r="F4">
-        <v>0.98487652290930205</v>
-      </c>
-      <c r="G4">
-        <v>0.94744252830896414</v>
+      <c r="B4" s="5">
+        <v>1.4357713473342191</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.396323543808242</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.056840167376536</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.98923533241378192</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.98430820023977539</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0.96049110858123121</v>
       </c>
     </row>
   </sheetData>
@@ -5189,199 +5638,566 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E61AC03-D1C0-4311-AF41-C9E8D3142956}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3.2315559619999998</v>
+      </c>
+      <c r="C2" s="5">
+        <v>17.17005417</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2.3197406049999998</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.71882846</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1.0500489999999999E-3</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.81298363200000001</v>
+      </c>
+      <c r="H2" s="5">
+        <v>-114.3674429</v>
+      </c>
+      <c r="I2" s="5">
+        <v>-48.581196499999997</v>
+      </c>
+      <c r="J2" s="5">
+        <v>-21.088183900000001</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1.2743964999999999E-2</v>
+      </c>
+      <c r="L2" s="5">
+        <v>2.4287572E-2</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.48856082499999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-1.6492657100000001</v>
+      </c>
+      <c r="C3" s="5">
+        <v>12.024786349999999</v>
+      </c>
+      <c r="D3" s="5">
+        <v>14.73375244</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.76783721400000005</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4.0810800000000001E-6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3.5492999999999999E-4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>-7.5782648950000002</v>
+      </c>
+      <c r="I3" s="5">
+        <v>-33.624382660000002</v>
+      </c>
+      <c r="J3" s="5">
+        <v>-40.523752299999998</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.70537941199999998</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.3576910000000001E-3</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2.0353999999999999E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2.8821196869999999</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13.60149756</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9.7467233750000002</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.57153481699999997</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2.9358800000000001E-5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3.8807816000000002E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-96.866039049999998</v>
+      </c>
+      <c r="I4" s="5">
+        <v>-26.41078061</v>
+      </c>
+      <c r="J4" s="5">
+        <v>-58.282156190000002</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1.041731E-3</v>
+      </c>
+      <c r="L4" s="5">
+        <v>4.3904538E-2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>2.2434130000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="P6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="U6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5">
+        <v>-3.2315559619999998</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0.71882846</v>
+      </c>
+      <c r="R7" s="5">
+        <v>17.17005417</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1.0500489999999999E-3</v>
+      </c>
+      <c r="T7" s="5">
+        <v>2.3197406049999998</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0.81298363200000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>-1.6492657100000001</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0.76783721400000005</v>
+      </c>
+      <c r="R8" s="5">
+        <v>12.024786349999999</v>
+      </c>
+      <c r="S8" s="5">
+        <v>4.0810800000000001E-6</v>
+      </c>
+      <c r="T8" s="5">
+        <v>14.73375244</v>
+      </c>
+      <c r="U8" s="5">
+        <v>3.5492999999999999E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="5">
+        <v>2.8821196869999999</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0.57153481699999997</v>
+      </c>
+      <c r="R9" s="5">
+        <v>13.60149756</v>
+      </c>
+      <c r="S9" s="5">
+        <v>2.9358800000000001E-5</v>
+      </c>
+      <c r="T9" s="5">
+        <v>9.7467233750000002</v>
+      </c>
+      <c r="U9" s="5">
+        <v>3.8807816000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-3.2315559619999998</v>
+      </c>
+      <c r="C11" s="5">
+        <v>17.17005417</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2.3197406049999998</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>-114.3674429</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-48.581196499999997</v>
+      </c>
+      <c r="I11" s="5">
+        <v>-21.088183900000001</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-1.6492657100000001</v>
+      </c>
+      <c r="C12" s="5">
+        <v>12.024786349999999</v>
+      </c>
+      <c r="D12" s="5">
+        <v>14.73375244</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>-7.5782648950000002</v>
+      </c>
+      <c r="H12" s="5">
+        <v>-33.624382660000002</v>
+      </c>
+      <c r="I12" s="5">
+        <v>-40.523752299999998</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2.8821196869999999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>13.60149756</v>
+      </c>
+      <c r="D13" s="5">
+        <v>9.7467233750000002</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>-96.866039049999998</v>
+      </c>
+      <c r="H13" s="5">
+        <v>-26.41078061</v>
+      </c>
+      <c r="I13" s="5">
+        <v>-58.282156190000002</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="T13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3">
-        <v>-1.6492657100000001</v>
-      </c>
-      <c r="C2" s="3">
-        <v>12.024786349999999</v>
-      </c>
-      <c r="D2" s="3">
-        <v>14.73375244</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.76783721400000005</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4.0810800000000001E-6</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3.5492999999999999E-4</v>
-      </c>
-      <c r="H2" s="3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5">
+        <v>-114.3674429</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>1.2743964999999999E-2</v>
+      </c>
+      <c r="R14" s="5">
+        <v>-48.581196499999997</v>
+      </c>
+      <c r="S14" s="5">
+        <v>2.4287572E-2</v>
+      </c>
+      <c r="T14" s="5">
+        <v>-21.088183900000001</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0.48856082499999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
         <v>-7.5782648950000002</v>
       </c>
-      <c r="I2" s="3">
+      <c r="Q15" s="6">
+        <v>0.70537941199999998</v>
+      </c>
+      <c r="R15" s="5">
         <v>-33.624382660000002</v>
       </c>
-      <c r="J2" s="3">
+      <c r="S15" s="5">
+        <v>1.3576910000000001E-3</v>
+      </c>
+      <c r="T15" s="5">
         <v>-40.523752299999998</v>
       </c>
-      <c r="K2" s="2">
-        <v>0.70537941199999998</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1.3576910000000001E-3</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="U15" s="5">
         <v>2.0353999999999999E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>-3.2315559619999998</v>
-      </c>
-      <c r="C3" s="3">
-        <v>17.17005417</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2.3197406049999998</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.71882846</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.0500489999999999E-3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.81298363200000001</v>
-      </c>
-      <c r="H3" s="3">
-        <v>-114.3674429</v>
-      </c>
-      <c r="I3" s="3">
-        <v>-48.581196499999997</v>
-      </c>
-      <c r="J3" s="3">
-        <v>-21.088183900000001</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1.2743964999999999E-2</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2.4287572E-2</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.48856082499999998</v>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="5">
+        <v>-96.866039049999998</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>1.041731E-3</v>
+      </c>
+      <c r="R16" s="5">
+        <v>-26.41078061</v>
+      </c>
+      <c r="S16" s="5">
+        <v>4.3904538E-2</v>
+      </c>
+      <c r="T16" s="5">
+        <v>-58.282156190000002</v>
+      </c>
+      <c r="U16" s="5">
+        <v>2.2434130000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2.8821196869999999</v>
-      </c>
-      <c r="C4" s="3">
-        <v>13.60149756</v>
-      </c>
-      <c r="D4" s="3">
-        <v>9.7467233750000002</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.57153481699999997</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.9358800000000001E-5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3.8807816000000002E-2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-96.866039049999998</v>
-      </c>
-      <c r="I4" s="3">
-        <v>-26.41078061</v>
-      </c>
-      <c r="J4" s="3">
-        <v>-58.282156190000002</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1.041731E-3</v>
-      </c>
-      <c r="L4" s="2">
-        <v>4.3904538E-2</v>
-      </c>
-      <c r="M4" s="2">
-        <v>2.2434130000000001E-3</v>
-      </c>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:G4">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="Q18 Q14 Q16 S14:S18 S7:S9 F3:G4">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:M4">
+  <conditionalFormatting sqref="K4:M4 L3:M3">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8:U9">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U15:U18">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:L7">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:L2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
